--- a/config/config_path/data_update_path_config.xlsx
+++ b/config/config_path/data_update_path_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new2\Data_update\config_path\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\score_update_model\config\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DDFD71-3074-4996-8203-2AC66BF040CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE2C463-2791-49EC-BD17-87058347050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="3645" windowWidth="17280" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="1920" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -855,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -876,6 +876,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1155,18 +1156,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A108" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>76</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>77</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>84</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>85</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>90</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>92</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>93</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>95</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>97</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>99</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>101</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>103</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>105</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>107</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>109</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>111</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>113</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>115</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>117</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>119</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>121</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>123</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>125</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>127</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>130</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>132</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>134</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>136</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>138</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>140</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>142</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>144</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>146</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>148</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>150</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>152</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>154</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>156</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>158</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>160</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>162</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>164</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>166</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>168</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>170</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>172</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>174</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>176</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>178</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>180</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>182</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>184</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>186</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>188</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>190</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>192</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>194</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>196</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>198</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>200</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>202</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>204</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>206</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>208</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>210</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>212</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>214</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>216</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>218</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>220</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>222</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>224</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>226</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>228</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>230</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>239</v>
       </c>
@@ -2457,18 +2458,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="4" width="8.625"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2510,21 +2511,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>236</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
